--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-12</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2079,141 +2079,141 @@
     <t>hadm_service-17</t>
   </si>
   <si>
+    <t>hzero-report</t>
+  </si>
+  <si>
+    <t>hadm_service-18</t>
+  </si>
+  <si>
+    <t>hzero-scheduler</t>
+  </si>
+  <si>
+    <t>hadm_service-19</t>
+  </si>
+  <si>
+    <t>hzero-swagger</t>
+  </si>
+  <si>
+    <t>hadm_service-20</t>
+  </si>
+  <si>
+    <t>hzero-transfer</t>
+  </si>
+  <si>
+    <t>hadm_service-21</t>
+  </si>
+  <si>
+    <t>hzero-workflow-plus</t>
+  </si>
+  <si>
+    <t>hadm_service-22</t>
+  </si>
+  <si>
+    <t>hzero-nlp</t>
+  </si>
+  <si>
+    <t>hadm_service-23</t>
+  </si>
+  <si>
+    <t>hzero-pay</t>
+  </si>
+  <si>
+    <t>hadm_service-24</t>
+  </si>
+  <si>
+    <t>hzero-monitor</t>
+  </si>
+  <si>
+    <t>hadm_service-25</t>
+  </si>
+  <si>
+    <t>hzero-im</t>
+  </si>
+  <si>
+    <t>hadm_service-26</t>
+  </si>
+  <si>
+    <t>hzero-gateway</t>
+  </si>
+  <si>
+    <t>hadm_service-27</t>
+  </si>
+  <si>
+    <t>hzero-ocr</t>
+  </si>
+  <si>
+    <t>hadm_service-28</t>
+  </si>
+  <si>
+    <t>hzero-invoice</t>
+  </si>
+  <si>
+    <t>hadm_service-29</t>
+  </si>
+  <si>
+    <t>hzero-charge</t>
+  </si>
+  <si>
+    <t>hadm_service-30</t>
+  </si>
+  <si>
+    <t>hzero-admin</t>
+  </si>
+  <si>
+    <t>hadm_service-31</t>
+  </si>
+  <si>
+    <t>hzero-iot</t>
+  </si>
+  <si>
+    <t>hadm_service-32</t>
+  </si>
+  <si>
+    <t>hzero-search</t>
+  </si>
+  <si>
+    <t>hadm_service-33</t>
+  </si>
+  <si>
+    <t>hzero-ebank</t>
+  </si>
+  <si>
+    <t>hadm_service-34</t>
+  </si>
+  <si>
+    <t>hzero-modeler</t>
+  </si>
+  <si>
+    <t>hadm_service-35</t>
+  </si>
+  <si>
+    <t>hzero-lowcode</t>
+  </si>
+  <si>
+    <t>hadm_service-36</t>
+  </si>
+  <si>
     <t>hzero-portal</t>
   </si>
   <si>
-    <t>hadm_service-18</t>
-  </si>
-  <si>
-    <t>hzero-report</t>
-  </si>
-  <si>
-    <t>hadm_service-19</t>
-  </si>
-  <si>
-    <t>hzero-scheduler</t>
-  </si>
-  <si>
-    <t>hadm_service-20</t>
-  </si>
-  <si>
-    <t>hzero-swagger</t>
-  </si>
-  <si>
-    <t>hadm_service-21</t>
-  </si>
-  <si>
-    <t>hzero-transfer</t>
-  </si>
-  <si>
-    <t>hadm_service-22</t>
-  </si>
-  <si>
-    <t>hzero-workflow-plus</t>
-  </si>
-  <si>
-    <t>hadm_service-23</t>
-  </si>
-  <si>
-    <t>hzero-nlp</t>
-  </si>
-  <si>
-    <t>hadm_service-24</t>
-  </si>
-  <si>
-    <t>hzero-pay</t>
-  </si>
-  <si>
-    <t>hadm_service-25</t>
-  </si>
-  <si>
-    <t>hzero-monitor</t>
-  </si>
-  <si>
-    <t>hadm_service-26</t>
-  </si>
-  <si>
-    <t>hzero-im</t>
-  </si>
-  <si>
-    <t>hadm_service-27</t>
+    <t>hadm_service-37</t>
+  </si>
+  <si>
+    <t>hzero-hap</t>
+  </si>
+  <si>
+    <t>hadm_service-38</t>
+  </si>
+  <si>
+    <t>hzero-dpm</t>
+  </si>
+  <si>
+    <t>hadm_service-39</t>
   </si>
   <si>
     <t>hzero-open</t>
   </si>
   <si>
-    <t>hadm_service-28</t>
-  </si>
-  <si>
-    <t>hzero-gateway</t>
-  </si>
-  <si>
-    <t>hadm_service-29</t>
-  </si>
-  <si>
-    <t>hzero-ocr</t>
-  </si>
-  <si>
-    <t>hadm_service-30</t>
-  </si>
-  <si>
-    <t>hzero-invoice</t>
-  </si>
-  <si>
-    <t>hadm_service-31</t>
-  </si>
-  <si>
-    <t>hzero-charge</t>
-  </si>
-  <si>
-    <t>hadm_service-32</t>
-  </si>
-  <si>
-    <t>hzero-admin</t>
-  </si>
-  <si>
-    <t>hadm_service-33</t>
-  </si>
-  <si>
-    <t>hzero-hap</t>
-  </si>
-  <si>
-    <t>hadm_service-34</t>
-  </si>
-  <si>
-    <t>hzero-iot</t>
-  </si>
-  <si>
-    <t>hadm_service-35</t>
-  </si>
-  <si>
-    <t>hzero-search</t>
-  </si>
-  <si>
-    <t>hadm_service-36</t>
-  </si>
-  <si>
-    <t>hzero-dpm</t>
-  </si>
-  <si>
-    <t>hadm_service-37</t>
-  </si>
-  <si>
-    <t>hzero-ebank</t>
-  </si>
-  <si>
-    <t>hadm_service-38</t>
-  </si>
-  <si>
-    <t>hzero-modeler</t>
-  </si>
-  <si>
-    <t>hadm_service-39</t>
-  </si>
-  <si>
-    <t>hzero-lowcode</t>
-  </si>
-  <si>
     <t>服务路由配置</t>
   </si>
   <si>
@@ -2313,136 +2313,136 @@
     <t>/hpfm/**</t>
   </si>
   <si>
+    <t>hrpt</t>
+  </si>
+  <si>
+    <t>/hrpt/**</t>
+  </si>
+  <si>
+    <t>hsdr</t>
+  </si>
+  <si>
+    <t>/hsdr/**</t>
+  </si>
+  <si>
+    <t>hwgr</t>
+  </si>
+  <si>
+    <t>/swagger/**</t>
+  </si>
+  <si>
+    <t>hdtt</t>
+  </si>
+  <si>
+    <t>/hdtt/**</t>
+  </si>
+  <si>
+    <t>hwfp</t>
+  </si>
+  <si>
+    <t>/hwfp/**</t>
+  </si>
+  <si>
+    <t>hnlp</t>
+  </si>
+  <si>
+    <t>/hnlp/**</t>
+  </si>
+  <si>
+    <t>hpay</t>
+  </si>
+  <si>
+    <t>/hpay/**</t>
+  </si>
+  <si>
+    <t>hmnt</t>
+  </si>
+  <si>
+    <t>/hmnt/**</t>
+  </si>
+  <si>
+    <t>hims</t>
+  </si>
+  <si>
+    <t>/hims/**</t>
+  </si>
+  <si>
+    <t>hocr</t>
+  </si>
+  <si>
+    <t>/hocr/**</t>
+  </si>
+  <si>
+    <t>hivc</t>
+  </si>
+  <si>
+    <t>/hivc/**</t>
+  </si>
+  <si>
+    <t>hchg</t>
+  </si>
+  <si>
+    <t>/hchg/**</t>
+  </si>
+  <si>
+    <t>hadm</t>
+  </si>
+  <si>
+    <t>/hadm/**</t>
+  </si>
+  <si>
+    <t>hiot</t>
+  </si>
+  <si>
+    <t>/hiot/**</t>
+  </si>
+  <si>
+    <t>hsrh</t>
+  </si>
+  <si>
+    <t>/hsrh/**</t>
+  </si>
+  <si>
+    <t>hebk</t>
+  </si>
+  <si>
+    <t>/hebk/**</t>
+  </si>
+  <si>
+    <t>hmde</t>
+  </si>
+  <si>
+    <t>/hmde/**</t>
+  </si>
+  <si>
+    <t>hlod</t>
+  </si>
+  <si>
+    <t>/hlod/**</t>
+  </si>
+  <si>
     <t>hptl</t>
   </si>
   <si>
     <t>/hptl/**</t>
   </si>
   <si>
-    <t>hrpt</t>
-  </si>
-  <si>
-    <t>/hrpt/**</t>
-  </si>
-  <si>
-    <t>hsdr</t>
-  </si>
-  <si>
-    <t>/hsdr/**</t>
-  </si>
-  <si>
-    <t>hwgr</t>
-  </si>
-  <si>
-    <t>/swagger/**</t>
-  </si>
-  <si>
-    <t>hdtt</t>
-  </si>
-  <si>
-    <t>/hdtt/**</t>
-  </si>
-  <si>
-    <t>hwfp</t>
-  </si>
-  <si>
-    <t>/hwfp/**</t>
-  </si>
-  <si>
-    <t>hnlp</t>
-  </si>
-  <si>
-    <t>/hnlp/**</t>
-  </si>
-  <si>
-    <t>hpay</t>
-  </si>
-  <si>
-    <t>/hpay/**</t>
-  </si>
-  <si>
-    <t>hmnt</t>
-  </si>
-  <si>
-    <t>/hmnt/**</t>
-  </si>
-  <si>
-    <t>hims</t>
-  </si>
-  <si>
-    <t>/hims/**</t>
+    <t>hap</t>
+  </si>
+  <si>
+    <t>/hap/**</t>
+  </si>
+  <si>
+    <t>hdpm</t>
+  </si>
+  <si>
+    <t>/hdpm/**</t>
   </si>
   <si>
     <t>hopn</t>
   </si>
   <si>
     <t>/hopn/**</t>
-  </si>
-  <si>
-    <t>hocr</t>
-  </si>
-  <si>
-    <t>/hocr/**</t>
-  </si>
-  <si>
-    <t>hivc</t>
-  </si>
-  <si>
-    <t>/hivc/**</t>
-  </si>
-  <si>
-    <t>hchg</t>
-  </si>
-  <si>
-    <t>/hchg/**</t>
-  </si>
-  <si>
-    <t>hadm</t>
-  </si>
-  <si>
-    <t>/hadm/**</t>
-  </si>
-  <si>
-    <t>hap</t>
-  </si>
-  <si>
-    <t>/hap/**</t>
-  </si>
-  <si>
-    <t>hiot</t>
-  </si>
-  <si>
-    <t>/hiot/**</t>
-  </si>
-  <si>
-    <t>hdpm</t>
-  </si>
-  <si>
-    <t>/hdpm/**</t>
-  </si>
-  <si>
-    <t>hsrh</t>
-  </si>
-  <si>
-    <t>/hsrh/**</t>
-  </si>
-  <si>
-    <t>hebk</t>
-  </si>
-  <si>
-    <t>/hebk/**</t>
-  </si>
-  <si>
-    <t>hmde</t>
-  </si>
-  <si>
-    <t>/hmde/**</t>
-  </si>
-  <si>
-    <t>hlod</t>
-  </si>
-  <si>
-    <t>/hlod/**</t>
   </si>
 </sst>
 </file>
@@ -4409,7 +4409,7 @@
         <v>173</v>
       </c>
       <c r="K59" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L59" t="s">
         <v>137</v>
@@ -4420,10 +4420,10 @@
         <v>134</v>
       </c>
       <c r="F60">
-        <f>路由!$E$26</f>
+        <f>路由!$E$27</f>
       </c>
       <c r="G60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H60" t="s">
         <v>174</v>
@@ -4432,7 +4432,7 @@
         <v>175</v>
       </c>
       <c r="K60" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L60" t="s">
         <v>137</v>
@@ -4443,10 +4443,10 @@
         <v>134</v>
       </c>
       <c r="F61">
-        <f>路由!$E$27</f>
+        <f>路由!$E$28</f>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H61" t="s">
         <v>176</v>
@@ -4501,7 +4501,7 @@
         <v>181</v>
       </c>
       <c r="K63" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L63" t="s">
         <v>137</v>
@@ -4547,7 +4547,7 @@
         <v>185</v>
       </c>
       <c r="K65" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L65" t="s">
         <v>137</v>
@@ -4570,7 +4570,7 @@
         <v>187</v>
       </c>
       <c r="K66" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L66" t="s">
         <v>137</v>
@@ -4604,10 +4604,10 @@
         <v>134</v>
       </c>
       <c r="F68">
-        <f>路由!$E$36</f>
+        <f>路由!$E$35</f>
       </c>
       <c r="G68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H68" t="s">
         <v>190</v>
@@ -4627,10 +4627,10 @@
         <v>134</v>
       </c>
       <c r="F69">
-        <f>路由!$E$35</f>
+        <f>路由!$E$36</f>
       </c>
       <c r="G69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H69" t="s">
         <v>192</v>
@@ -4662,7 +4662,7 @@
         <v>195</v>
       </c>
       <c r="K70" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L70" t="s">
         <v>137</v>
@@ -4711,7 +4711,7 @@
         <v>137</v>
       </c>
       <c r="L72" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-03-12</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2079,141 +2079,141 @@
     <t>hadm_service-17</t>
   </si>
   <si>
+    <t>hzero-portal</t>
+  </si>
+  <si>
+    <t>hadm_service-18</t>
+  </si>
+  <si>
     <t>hzero-report</t>
   </si>
   <si>
-    <t>hadm_service-18</t>
+    <t>hadm_service-19</t>
   </si>
   <si>
     <t>hzero-scheduler</t>
   </si>
   <si>
-    <t>hadm_service-19</t>
+    <t>hadm_service-20</t>
   </si>
   <si>
     <t>hzero-swagger</t>
   </si>
   <si>
-    <t>hadm_service-20</t>
+    <t>hadm_service-21</t>
   </si>
   <si>
     <t>hzero-transfer</t>
   </si>
   <si>
-    <t>hadm_service-21</t>
+    <t>hadm_service-22</t>
   </si>
   <si>
     <t>hzero-workflow-plus</t>
   </si>
   <si>
-    <t>hadm_service-22</t>
+    <t>hadm_service-23</t>
   </si>
   <si>
     <t>hzero-nlp</t>
   </si>
   <si>
-    <t>hadm_service-23</t>
+    <t>hadm_service-24</t>
   </si>
   <si>
     <t>hzero-pay</t>
   </si>
   <si>
-    <t>hadm_service-24</t>
+    <t>hadm_service-25</t>
   </si>
   <si>
     <t>hzero-monitor</t>
   </si>
   <si>
-    <t>hadm_service-25</t>
+    <t>hadm_service-26</t>
   </si>
   <si>
     <t>hzero-im</t>
   </si>
   <si>
-    <t>hadm_service-26</t>
+    <t>hadm_service-27</t>
+  </si>
+  <si>
+    <t>hzero-open</t>
+  </si>
+  <si>
+    <t>hadm_service-28</t>
   </si>
   <si>
     <t>hzero-gateway</t>
   </si>
   <si>
-    <t>hadm_service-27</t>
+    <t>hadm_service-29</t>
   </si>
   <si>
     <t>hzero-ocr</t>
   </si>
   <si>
-    <t>hadm_service-28</t>
+    <t>hadm_service-30</t>
   </si>
   <si>
     <t>hzero-invoice</t>
   </si>
   <si>
-    <t>hadm_service-29</t>
+    <t>hadm_service-31</t>
   </si>
   <si>
     <t>hzero-charge</t>
   </si>
   <si>
-    <t>hadm_service-30</t>
+    <t>hadm_service-32</t>
   </si>
   <si>
     <t>hzero-admin</t>
   </si>
   <si>
-    <t>hadm_service-31</t>
+    <t>hadm_service-33</t>
+  </si>
+  <si>
+    <t>hzero-hap</t>
+  </si>
+  <si>
+    <t>hadm_service-34</t>
   </si>
   <si>
     <t>hzero-iot</t>
   </si>
   <si>
-    <t>hadm_service-32</t>
+    <t>hadm_service-35</t>
   </si>
   <si>
     <t>hzero-search</t>
   </si>
   <si>
-    <t>hadm_service-33</t>
+    <t>hadm_service-36</t>
+  </si>
+  <si>
+    <t>hzero-dpm</t>
+  </si>
+  <si>
+    <t>hadm_service-37</t>
   </si>
   <si>
     <t>hzero-ebank</t>
   </si>
   <si>
-    <t>hadm_service-34</t>
+    <t>hadm_service-38</t>
   </si>
   <si>
     <t>hzero-modeler</t>
   </si>
   <si>
-    <t>hadm_service-35</t>
+    <t>hadm_service-39</t>
   </si>
   <si>
     <t>hzero-lowcode</t>
   </si>
   <si>
-    <t>hadm_service-36</t>
-  </si>
-  <si>
-    <t>hzero-portal</t>
-  </si>
-  <si>
-    <t>hadm_service-37</t>
-  </si>
-  <si>
-    <t>hzero-hap</t>
-  </si>
-  <si>
-    <t>hadm_service-38</t>
-  </si>
-  <si>
-    <t>hzero-dpm</t>
-  </si>
-  <si>
-    <t>hadm_service-39</t>
-  </si>
-  <si>
-    <t>hzero-open</t>
-  </si>
-  <si>
     <t>服务路由配置</t>
   </si>
   <si>
@@ -2313,6 +2313,12 @@
     <t>/hpfm/**</t>
   </si>
   <si>
+    <t>hptl</t>
+  </si>
+  <si>
+    <t>/hptl/**</t>
+  </si>
+  <si>
     <t>hrpt</t>
   </si>
   <si>
@@ -2367,6 +2373,12 @@
     <t>/hims/**</t>
   </si>
   <si>
+    <t>hopn</t>
+  </si>
+  <si>
+    <t>/hopn/**</t>
+  </si>
+  <si>
     <t>hocr</t>
   </si>
   <si>
@@ -2391,12 +2403,24 @@
     <t>/hadm/**</t>
   </si>
   <si>
+    <t>hap</t>
+  </si>
+  <si>
+    <t>/hap/**</t>
+  </si>
+  <si>
     <t>hiot</t>
   </si>
   <si>
     <t>/hiot/**</t>
   </si>
   <si>
+    <t>hdpm</t>
+  </si>
+  <si>
+    <t>/hdpm/**</t>
+  </si>
+  <si>
     <t>hsrh</t>
   </si>
   <si>
@@ -2419,30 +2443,6 @@
   </si>
   <si>
     <t>/hlod/**</t>
-  </si>
-  <si>
-    <t>hptl</t>
-  </si>
-  <si>
-    <t>/hptl/**</t>
-  </si>
-  <si>
-    <t>hap</t>
-  </si>
-  <si>
-    <t>/hap/**</t>
-  </si>
-  <si>
-    <t>hdpm</t>
-  </si>
-  <si>
-    <t>/hdpm/**</t>
-  </si>
-  <si>
-    <t>hopn</t>
-  </si>
-  <si>
-    <t>/hopn/**</t>
   </si>
 </sst>
 </file>
@@ -4409,7 +4409,7 @@
         <v>173</v>
       </c>
       <c r="K59" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L59" t="s">
         <v>137</v>
@@ -4420,10 +4420,10 @@
         <v>134</v>
       </c>
       <c r="F60">
-        <f>路由!$E$27</f>
+        <f>路由!$E$26</f>
       </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H60" t="s">
         <v>174</v>
@@ -4432,7 +4432,7 @@
         <v>175</v>
       </c>
       <c r="K60" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L60" t="s">
         <v>137</v>
@@ -4443,10 +4443,10 @@
         <v>134</v>
       </c>
       <c r="F61">
-        <f>路由!$E$28</f>
+        <f>路由!$E$27</f>
       </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H61" t="s">
         <v>176</v>
@@ -4501,7 +4501,7 @@
         <v>181</v>
       </c>
       <c r="K63" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L63" t="s">
         <v>137</v>
@@ -4547,7 +4547,7 @@
         <v>185</v>
       </c>
       <c r="K65" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L65" t="s">
         <v>137</v>
@@ -4570,7 +4570,7 @@
         <v>187</v>
       </c>
       <c r="K66" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L66" t="s">
         <v>137</v>
@@ -4604,10 +4604,10 @@
         <v>134</v>
       </c>
       <c r="F68">
-        <f>路由!$E$35</f>
+        <f>路由!$E$36</f>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H68" t="s">
         <v>190</v>
@@ -4627,10 +4627,10 @@
         <v>134</v>
       </c>
       <c r="F69">
-        <f>路由!$E$36</f>
+        <f>路由!$E$35</f>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H69" t="s">
         <v>192</v>
@@ -4662,7 +4662,7 @@
         <v>195</v>
       </c>
       <c r="K70" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L70" t="s">
         <v>137</v>
@@ -4711,7 +4711,7 @@
         <v>137</v>
       </c>
       <c r="L72" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="196">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2205,12 +2205,6 @@
     <t>hadm_service-38</t>
   </si>
   <si>
-    <t>hzero-dpm</t>
-  </si>
-  <si>
-    <t>hadm_service-39</t>
-  </si>
-  <si>
     <t>hzero-open</t>
   </si>
   <si>
@@ -2431,12 +2425,6 @@
   </si>
   <si>
     <t>/hap/**</t>
-  </si>
-  <si>
-    <t>hdpm</t>
-  </si>
-  <si>
-    <t>/hdpm/**</t>
   </si>
   <si>
     <t>hopn</t>
@@ -3449,7 +3437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3943,93 +3931,102 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39">
-      <c r="E39" t="s">
+    <row r="40">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
         <v>121</v>
       </c>
-      <c r="F39" t="s">
+      <c r="D40" t="s" s="42">
         <v>122</v>
       </c>
-      <c r="G39" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" t="s">
-        <v>122</v>
+      <c r="E40" t="s" s="43">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s" s="44">
+        <v>124</v>
+      </c>
+      <c r="G40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" t="s" s="45">
+        <v>126</v>
+      </c>
+      <c r="I40" t="s" s="46">
+        <v>127</v>
+      </c>
+      <c r="J40" t="s">
+        <v>128</v>
+      </c>
+      <c r="K40" t="s">
+        <v>129</v>
+      </c>
+      <c r="L40" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" t="s" s="42">
-        <v>124</v>
-      </c>
-      <c r="E41" t="s" s="43">
-        <v>125</v>
-      </c>
-      <c r="F41" t="s" s="44">
-        <v>126</v>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41">
+        <f>路由!$E$8</f>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" t="s" s="45">
-        <v>128</v>
-      </c>
-      <c r="I41" t="s" s="46">
-        <v>129</v>
-      </c>
-      <c r="J41" t="s">
-        <v>130</v>
+        <v>60</v>
+      </c>
+      <c r="H41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" t="s">
+        <v>134</v>
       </c>
       <c r="K41" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s">
-        <v>132</v>
-      </c>
-      <c r="M41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F42">
-        <f>路由!$E$8</f>
+        <f>路由!$E$9</f>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F43">
-        <f>路由!$E$9</f>
+        <f>路由!$E$10</f>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H43" t="s">
         <v>138</v>
@@ -4038,21 +4035,21 @@
         <v>139</v>
       </c>
       <c r="K43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F44">
-        <f>路由!$E$10</f>
+        <f>路由!$E$11</f>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H44" t="s">
         <v>140</v>
@@ -4061,21 +4058,21 @@
         <v>141</v>
       </c>
       <c r="K44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F45">
-        <f>路由!$E$11</f>
+        <f>路由!$E$12</f>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
         <v>142</v>
@@ -4084,21 +4081,21 @@
         <v>143</v>
       </c>
       <c r="K45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F46">
-        <f>路由!$E$12</f>
+        <f>路由!$E$13</f>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H46" t="s">
         <v>144</v>
@@ -4107,21 +4104,21 @@
         <v>145</v>
       </c>
       <c r="K46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F47">
-        <f>路由!$E$13</f>
+        <f>路由!$E$14</f>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
         <v>146</v>
@@ -4130,21 +4127,21 @@
         <v>147</v>
       </c>
       <c r="K47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F48">
-        <f>路由!$E$14</f>
+        <f>路由!$E$15</f>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s">
         <v>148</v>
@@ -4153,47 +4150,47 @@
         <v>149</v>
       </c>
       <c r="K48" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L48" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="M48" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F49">
-        <f>路由!$E$15</f>
+        <f>路由!$E$16</f>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s">
-        <v>137</v>
-      </c>
-      <c r="M49" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F50">
-        <f>路由!$E$16</f>
+        <f>路由!$E$17</f>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s">
         <v>154</v>
@@ -4202,21 +4199,21 @@
         <v>155</v>
       </c>
       <c r="K50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F51">
-        <f>路由!$E$17</f>
+        <f>路由!$E$18</f>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
         <v>156</v>
@@ -4225,21 +4222,21 @@
         <v>157</v>
       </c>
       <c r="K51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F52">
-        <f>路由!$E$18</f>
+        <f>路由!$E$19</f>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s">
         <v>158</v>
@@ -4248,21 +4245,21 @@
         <v>159</v>
       </c>
       <c r="K52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F53">
-        <f>路由!$E$19</f>
+        <f>路由!$E$20</f>
       </c>
       <c r="G53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s">
         <v>160</v>
@@ -4271,21 +4268,21 @@
         <v>161</v>
       </c>
       <c r="K53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L53" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F54">
-        <f>路由!$E$20</f>
+        <f>路由!$E$21</f>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s">
         <v>162</v>
@@ -4294,21 +4291,21 @@
         <v>163</v>
       </c>
       <c r="K54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F55">
-        <f>路由!$E$21</f>
+        <f>路由!$E$22</f>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s">
         <v>164</v>
@@ -4317,21 +4314,21 @@
         <v>165</v>
       </c>
       <c r="K55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F56">
-        <f>路由!$E$22</f>
+        <f>路由!$E$23</f>
       </c>
       <c r="G56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s">
         <v>166</v>
@@ -4340,21 +4337,21 @@
         <v>167</v>
       </c>
       <c r="K56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F57">
-        <f>路由!$E$23</f>
+        <f>路由!$E$24</f>
       </c>
       <c r="G57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s">
         <v>168</v>
@@ -4363,21 +4360,21 @@
         <v>169</v>
       </c>
       <c r="K57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F58">
-        <f>路由!$E$24</f>
+        <f>路由!$E$25</f>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H58" t="s">
         <v>170</v>
@@ -4386,21 +4383,21 @@
         <v>171</v>
       </c>
       <c r="K58" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F59">
-        <f>路由!$E$25</f>
+        <f>路由!$E$27</f>
       </c>
       <c r="G59" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H59" t="s">
         <v>172</v>
@@ -4409,21 +4406,21 @@
         <v>173</v>
       </c>
       <c r="K59" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F60">
-        <f>路由!$E$27</f>
+        <f>路由!$E$28</f>
       </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H60" t="s">
         <v>174</v>
@@ -4432,21 +4429,21 @@
         <v>175</v>
       </c>
       <c r="K60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F61">
-        <f>路由!$E$28</f>
+        <f>路由!$E$29</f>
       </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H61" t="s">
         <v>176</v>
@@ -4455,21 +4452,21 @@
         <v>177</v>
       </c>
       <c r="K61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F62">
-        <f>路由!$E$29</f>
+        <f>路由!$E$30</f>
       </c>
       <c r="G62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H62" t="s">
         <v>178</v>
@@ -4478,21 +4475,21 @@
         <v>179</v>
       </c>
       <c r="K62" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F63">
-        <f>路由!$E$30</f>
+        <f>路由!$E$31</f>
       </c>
       <c r="G63" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H63" t="s">
         <v>180</v>
@@ -4501,21 +4498,21 @@
         <v>181</v>
       </c>
       <c r="K63" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F64">
-        <f>路由!$E$31</f>
+        <f>路由!$E$32</f>
       </c>
       <c r="G64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H64" t="s">
         <v>182</v>
@@ -4524,21 +4521,21 @@
         <v>183</v>
       </c>
       <c r="K64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F65">
-        <f>路由!$E$32</f>
+        <f>路由!$E$33</f>
       </c>
       <c r="G65" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H65" t="s">
         <v>184</v>
@@ -4547,21 +4544,21 @@
         <v>185</v>
       </c>
       <c r="K65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F66">
-        <f>路由!$E$33</f>
+        <f>路由!$E$34</f>
       </c>
       <c r="G66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H66" t="s">
         <v>186</v>
@@ -4570,21 +4567,21 @@
         <v>187</v>
       </c>
       <c r="K66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F67">
-        <f>路由!$E$34</f>
+        <f>路由!$E$35</f>
       </c>
       <c r="G67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H67" t="s">
         <v>188</v>
@@ -4593,21 +4590,21 @@
         <v>189</v>
       </c>
       <c r="K67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F68">
-        <f>路由!$E$35</f>
+        <f>路由!$E$36</f>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H68" t="s">
         <v>190</v>
@@ -4616,21 +4613,21 @@
         <v>191</v>
       </c>
       <c r="K68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F69">
-        <f>路由!$E$36</f>
+        <f>路由!$E$37</f>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H69" t="s">
         <v>192</v>
@@ -4639,21 +4636,21 @@
         <v>193</v>
       </c>
       <c r="K69" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F70">
-        <f>路由!$E$37</f>
+        <f>路由!$E$38</f>
       </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H70" t="s">
         <v>194</v>
@@ -4662,56 +4659,10 @@
         <v>195</v>
       </c>
       <c r="K70" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71">
-        <f>路由!$E$38</f>
-      </c>
-      <c r="G71" t="s">
-        <v>120</v>
-      </c>
-      <c r="H71" t="s">
-        <v>196</v>
-      </c>
-      <c r="I71" t="s">
-        <v>197</v>
-      </c>
-      <c r="K71" t="s">
-        <v>137</v>
-      </c>
-      <c r="L71" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72">
-        <f>路由!$E$39</f>
-      </c>
-      <c r="G72" t="s">
-        <v>122</v>
-      </c>
-      <c r="H72" t="s">
-        <v>198</v>
-      </c>
-      <c r="I72" t="s">
-        <v>199</v>
-      </c>
-      <c r="K72" t="s">
-        <v>137</v>
-      </c>
-      <c r="L72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1629D60-31D7-4921-8D65-E77BB92940A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="路由" r:id="rId5" sheetId="2"/>
+    <sheet name="路由" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -2025,189 +2026,33 @@
     <t>hadm_service-8</t>
   </si>
   <si>
-    <t>hzero-asgard</t>
-  </si>
-  <si>
-    <t>hadm_service-9</t>
-  </si>
-  <si>
-    <t>hzero-config</t>
-  </si>
-  <si>
     <t>hadm_service-10</t>
   </si>
   <si>
-    <t>hzero-file</t>
-  </si>
-  <si>
     <t>hadm_service-11</t>
   </si>
   <si>
-    <t>hzero-iam</t>
-  </si>
-  <si>
-    <t>hadm_service-12</t>
-  </si>
-  <si>
-    <t>hzero-import</t>
-  </si>
-  <si>
-    <t>hadm_service-13</t>
-  </si>
-  <si>
-    <t>hzero-interface</t>
-  </si>
-  <si>
     <t>hadm_service-14</t>
   </si>
   <si>
-    <t>hzero-message</t>
-  </si>
-  <si>
     <t>hadm_service-15</t>
   </si>
   <si>
-    <t>hzero-oauth</t>
-  </si>
-  <si>
     <t>hadm_service-16</t>
   </si>
   <si>
-    <t>hzero-platform</t>
-  </si>
-  <si>
-    <t>hadm_service-17</t>
-  </si>
-  <si>
-    <t>hzero-report</t>
-  </si>
-  <si>
-    <t>hadm_service-18</t>
-  </si>
-  <si>
-    <t>hzero-scheduler</t>
-  </si>
-  <si>
     <t>hadm_service-19</t>
   </si>
   <si>
-    <t>hzero-swagger</t>
-  </si>
-  <si>
-    <t>hadm_service-20</t>
-  </si>
-  <si>
-    <t>hzero-transfer</t>
-  </si>
-  <si>
-    <t>hadm_service-21</t>
-  </si>
-  <si>
-    <t>hzero-workflow-plus</t>
-  </si>
-  <si>
-    <t>hadm_service-22</t>
-  </si>
-  <si>
-    <t>hzero-nlp</t>
-  </si>
-  <si>
-    <t>hadm_service-23</t>
-  </si>
-  <si>
-    <t>hzero-pay</t>
-  </si>
-  <si>
     <t>hadm_service-24</t>
   </si>
   <si>
-    <t>hzero-monitor</t>
-  </si>
-  <si>
-    <t>hadm_service-25</t>
-  </si>
-  <si>
-    <t>hzero-im</t>
-  </si>
-  <si>
     <t>hadm_service-26</t>
   </si>
   <si>
-    <t>hzero-gateway</t>
-  </si>
-  <si>
-    <t>hadm_service-27</t>
-  </si>
-  <si>
-    <t>hzero-ocr</t>
-  </si>
-  <si>
-    <t>hadm_service-28</t>
-  </si>
-  <si>
-    <t>hzero-invoice</t>
-  </si>
-  <si>
-    <t>hadm_service-29</t>
-  </si>
-  <si>
-    <t>hzero-charge</t>
-  </si>
-  <si>
     <t>hadm_service-30</t>
   </si>
   <si>
-    <t>hzero-admin</t>
-  </si>
-  <si>
-    <t>hadm_service-31</t>
-  </si>
-  <si>
-    <t>hzero-iot</t>
-  </si>
-  <si>
-    <t>hadm_service-32</t>
-  </si>
-  <si>
-    <t>hzero-search</t>
-  </si>
-  <si>
-    <t>hadm_service-33</t>
-  </si>
-  <si>
-    <t>hzero-ebank</t>
-  </si>
-  <si>
-    <t>hadm_service-34</t>
-  </si>
-  <si>
-    <t>hzero-modeler</t>
-  </si>
-  <si>
-    <t>hadm_service-35</t>
-  </si>
-  <si>
-    <t>hzero-lowcode</t>
-  </si>
-  <si>
-    <t>hadm_service-36</t>
-  </si>
-  <si>
-    <t>hzero-portal</t>
-  </si>
-  <si>
-    <t>hadm_service-37</t>
-  </si>
-  <si>
-    <t>hzero-hap</t>
-  </si>
-  <si>
-    <t>hadm_service-38</t>
-  </si>
-  <si>
-    <t>hzero-open</t>
-  </si>
-  <si>
     <t>服务路由配置</t>
   </si>
   <si>
@@ -2253,12 +2098,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>hcnf</t>
-  </si>
-  <si>
-    <t>/hcnf/**</t>
-  </si>
-  <si>
     <t>hfle</t>
   </si>
   <si>
@@ -2271,18 +2110,6 @@
     <t>/iam/**</t>
   </si>
   <si>
-    <t>himp</t>
-  </si>
-  <si>
-    <t>/himp/**</t>
-  </si>
-  <si>
-    <t>hitf</t>
-  </si>
-  <si>
-    <t>/hitf/**</t>
-  </si>
-  <si>
     <t>hmsg</t>
   </si>
   <si>
@@ -2307,137 +2134,58 @@
     <t>/hpfm/**</t>
   </si>
   <si>
-    <t>hrpt</t>
-  </si>
-  <si>
-    <t>/hrpt/**</t>
-  </si>
-  <si>
-    <t>hsdr</t>
-  </si>
-  <si>
-    <t>/hsdr/**</t>
-  </si>
-  <si>
     <t>hwgr</t>
   </si>
   <si>
     <t>/swagger/**</t>
   </si>
   <si>
-    <t>hdtt</t>
-  </si>
-  <si>
-    <t>/hdtt/**</t>
-  </si>
-  <si>
-    <t>hwfp</t>
-  </si>
-  <si>
-    <t>/hwfp/**</t>
-  </si>
-  <si>
-    <t>hnlp</t>
-  </si>
-  <si>
-    <t>/hnlp/**</t>
-  </si>
-  <si>
-    <t>hpay</t>
-  </si>
-  <si>
-    <t>/hpay/**</t>
-  </si>
-  <si>
     <t>hmnt</t>
   </si>
   <si>
     <t>/hmnt/**</t>
   </si>
   <si>
-    <t>hims</t>
-  </si>
-  <si>
-    <t>/hims/**</t>
-  </si>
-  <si>
-    <t>hocr</t>
-  </si>
-  <si>
-    <t>/hocr/**</t>
-  </si>
-  <si>
-    <t>hivc</t>
-  </si>
-  <si>
-    <t>/hivc/**</t>
-  </si>
-  <si>
-    <t>hchg</t>
-  </si>
-  <si>
-    <t>/hchg/**</t>
-  </si>
-  <si>
     <t>hadm</t>
   </si>
   <si>
     <t>/hadm/**</t>
   </si>
   <si>
-    <t>hiot</t>
-  </si>
-  <si>
-    <t>/hiot/**</t>
-  </si>
-  <si>
-    <t>hsrh</t>
-  </si>
-  <si>
-    <t>/hsrh/**</t>
-  </si>
-  <si>
-    <t>hebk</t>
-  </si>
-  <si>
-    <t>/hebk/**</t>
-  </si>
-  <si>
-    <t>hmde</t>
-  </si>
-  <si>
-    <t>/hmde/**</t>
-  </si>
-  <si>
-    <t>hlod</t>
-  </si>
-  <si>
-    <t>/hlod/**</t>
-  </si>
-  <si>
-    <t>hptl</t>
-  </si>
-  <si>
-    <t>/hptl/**</t>
-  </si>
-  <si>
-    <t>hap</t>
-  </si>
-  <si>
-    <t>/hap/**</t>
-  </si>
-  <si>
-    <t>hopn</t>
-  </si>
-  <si>
-    <t>/hopn/**</t>
+    <t>choerodon-asgard</t>
+  </si>
+  <si>
+    <t>choerodon-file</t>
+  </si>
+  <si>
+    <t>choerodon-iam</t>
+  </si>
+  <si>
+    <t>choerodon-message</t>
+  </si>
+  <si>
+    <t>choerodon-oauth</t>
+  </si>
+  <si>
+    <t>choerodon-platform</t>
+  </si>
+  <si>
+    <t>choerodon-swagger</t>
+  </si>
+  <si>
+    <t>choerodon-monitor</t>
+  </si>
+  <si>
+    <t>choerodon-gateway</t>
+  </si>
+  <si>
+    <t>choerodon-admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="33">
     <font>
       <sz val="12"/>
@@ -2557,79 +2305,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2770,7 +2533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2822,6 +2585,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2837,25 +2615,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3195,36 +2959,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3233,21 +2997,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3358,11 +3122,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3400,19 +3164,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3436,39 +3200,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:9">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:9">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3478,13 +3250,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3497,1175 +3269,409 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="E8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D19" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
+      <c r="E19" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F19" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
+      <c r="G19" t="s">
         <v>73</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H19" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
+      <c r="I19" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J19" t="s">
         <v>76</v>
       </c>
-      <c r="G16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
+      <c r="K19" t="s">
         <v>77</v>
       </c>
-      <c r="F17" t="s">
+      <c r="L19" t="s">
         <v>78</v>
       </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
+      <c r="M19" t="s">
         <v>79</v>
       </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="20" spans="1:13">
+      <c r="E20" t="s">
         <v>80</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F20" t="str">
+        <f>路由!$E$8</f>
+        <v>hadm_service-8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="H18" t="s">
+      <c r="F21" t="str">
+        <f>路由!$E$9</f>
+        <v>hadm_service-10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="E22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
+      <c r="F22" t="str">
+        <f>路由!$E$10</f>
+        <v>hadm_service-11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
         <v>83</v>
       </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="str">
+        <f>路由!$E$11</f>
+        <v>hadm_service-14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
         <v>88</v>
       </c>
-      <c r="G22" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
+      <c r="I23" t="s">
         <v>89</v>
       </c>
-      <c r="F23" t="s">
+      <c r="K23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="str">
+        <f>路由!$E$12</f>
+        <v>hadm_service-15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" t="s">
         <v>90</v>
       </c>
-      <c r="G23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
+      <c r="I24" t="s">
         <v>91</v>
       </c>
-      <c r="F24" t="s">
+      <c r="K24" t="s">
         <v>92</v>
       </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="L24" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="E25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="F25" t="str">
+        <f>路由!$E$13</f>
+        <v>hadm_service-16</v>
       </c>
       <c r="G25" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="E26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="F26" t="str">
+        <f>路由!$E$14</f>
+        <v>hadm_service-19</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="I26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="F27" t="str">
+        <f>路由!$E$15</f>
+        <v>hadm_service-24</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="F28" t="str">
+        <f>路由!$E$17</f>
+        <v>hadm_service-30</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
+      <c r="I28" t="s">
         <v>101</v>
       </c>
-      <c r="F29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" t="s">
-        <v>116</v>
-      </c>
-      <c r="G36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G38" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" t="s" s="42">
-        <v>122</v>
-      </c>
-      <c r="E40" t="s" s="43">
-        <v>123</v>
-      </c>
-      <c r="F40" t="s" s="44">
-        <v>124</v>
-      </c>
-      <c r="G40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" t="s" s="45">
-        <v>126</v>
-      </c>
-      <c r="I40" t="s" s="46">
-        <v>127</v>
-      </c>
-      <c r="J40" t="s">
-        <v>128</v>
-      </c>
-      <c r="K40" t="s">
-        <v>129</v>
-      </c>
-      <c r="L40" t="s">
-        <v>130</v>
-      </c>
-      <c r="M40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="E41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41">
-        <f>路由!$E$8</f>
-      </c>
-      <c r="G41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" t="s">
-        <v>133</v>
-      </c>
-      <c r="I41" t="s">
-        <v>134</v>
-      </c>
-      <c r="K41" t="s">
-        <v>135</v>
-      </c>
-      <c r="L41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="E42" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42">
-        <f>路由!$E$9</f>
-      </c>
-      <c r="G42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" t="s">
-        <v>136</v>
-      </c>
-      <c r="I42" t="s">
-        <v>137</v>
-      </c>
-      <c r="K42" t="s">
-        <v>135</v>
-      </c>
-      <c r="L42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="E43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43">
-        <f>路由!$E$10</f>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" t="s">
-        <v>138</v>
-      </c>
-      <c r="I43" t="s">
-        <v>139</v>
-      </c>
-      <c r="K43" t="s">
-        <v>135</v>
-      </c>
-      <c r="L43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44">
-        <f>路由!$E$11</f>
-      </c>
-      <c r="G44" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" t="s">
-        <v>141</v>
-      </c>
-      <c r="K44" t="s">
-        <v>135</v>
-      </c>
-      <c r="L44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F45">
-        <f>路由!$E$12</f>
-      </c>
-      <c r="G45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" t="s">
-        <v>143</v>
-      </c>
-      <c r="K45" t="s">
-        <v>135</v>
-      </c>
-      <c r="L45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46">
-        <f>路由!$E$13</f>
-      </c>
-      <c r="G46" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" t="s">
-        <v>145</v>
-      </c>
-      <c r="K46" t="s">
-        <v>135</v>
-      </c>
-      <c r="L46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47">
-        <f>路由!$E$14</f>
-      </c>
-      <c r="G47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" t="s">
-        <v>147</v>
-      </c>
-      <c r="K47" t="s">
-        <v>135</v>
-      </c>
-      <c r="L47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48">
-        <f>路由!$E$15</f>
-      </c>
-      <c r="G48" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s">
-        <v>148</v>
-      </c>
-      <c r="I48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K48" t="s">
-        <v>150</v>
-      </c>
-      <c r="L48" t="s">
-        <v>135</v>
-      </c>
-      <c r="M48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49">
-        <f>路由!$E$16</f>
-      </c>
-      <c r="G49" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" t="s">
-        <v>152</v>
-      </c>
-      <c r="I49" t="s">
-        <v>153</v>
-      </c>
-      <c r="K49" t="s">
-        <v>135</v>
-      </c>
-      <c r="L49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50">
-        <f>路由!$E$17</f>
-      </c>
-      <c r="G50" t="s">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s">
-        <v>154</v>
-      </c>
-      <c r="I50" t="s">
-        <v>155</v>
-      </c>
-      <c r="K50" t="s">
-        <v>135</v>
-      </c>
-      <c r="L50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="E51" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51">
-        <f>路由!$E$18</f>
-      </c>
-      <c r="G51" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" t="s">
-        <v>156</v>
-      </c>
-      <c r="I51" t="s">
-        <v>157</v>
-      </c>
-      <c r="K51" t="s">
-        <v>135</v>
-      </c>
-      <c r="L51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52">
-        <f>路由!$E$19</f>
-      </c>
-      <c r="G52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" t="s">
-        <v>158</v>
-      </c>
-      <c r="I52" t="s">
-        <v>159</v>
-      </c>
-      <c r="K52" t="s">
-        <v>135</v>
-      </c>
-      <c r="L52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53">
-        <f>路由!$E$20</f>
-      </c>
-      <c r="G53" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" t="s">
-        <v>160</v>
-      </c>
-      <c r="I53" t="s">
-        <v>161</v>
-      </c>
-      <c r="K53" t="s">
-        <v>135</v>
-      </c>
-      <c r="L53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>132</v>
-      </c>
-      <c r="F54">
-        <f>路由!$E$21</f>
-      </c>
-      <c r="G54" t="s">
-        <v>86</v>
-      </c>
-      <c r="H54" t="s">
-        <v>162</v>
-      </c>
-      <c r="I54" t="s">
-        <v>163</v>
-      </c>
-      <c r="K54" t="s">
-        <v>135</v>
-      </c>
-      <c r="L54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>132</v>
-      </c>
-      <c r="F55">
-        <f>路由!$E$22</f>
-      </c>
-      <c r="G55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" t="s">
-        <v>164</v>
-      </c>
-      <c r="I55" t="s">
-        <v>165</v>
-      </c>
-      <c r="K55" t="s">
-        <v>135</v>
-      </c>
-      <c r="L55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>132</v>
-      </c>
-      <c r="F56">
-        <f>路由!$E$23</f>
-      </c>
-      <c r="G56" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56" t="s">
-        <v>166</v>
-      </c>
-      <c r="I56" t="s">
-        <v>167</v>
-      </c>
-      <c r="K56" t="s">
-        <v>135</v>
-      </c>
-      <c r="L56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57">
-        <f>路由!$E$24</f>
-      </c>
-      <c r="G57" t="s">
+      <c r="K28" t="s">
         <v>92</v>
       </c>
-      <c r="H57" t="s">
-        <v>168</v>
-      </c>
-      <c r="I57" t="s">
-        <v>169</v>
-      </c>
-      <c r="K57" t="s">
-        <v>135</v>
-      </c>
-      <c r="L57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58">
-        <f>路由!$E$25</f>
-      </c>
-      <c r="G58" t="s">
-        <v>94</v>
-      </c>
-      <c r="H58" t="s">
-        <v>170</v>
-      </c>
-      <c r="I58" t="s">
-        <v>171</v>
-      </c>
-      <c r="K58" t="s">
-        <v>150</v>
-      </c>
-      <c r="L58" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59">
-        <f>路由!$E$27</f>
-      </c>
-      <c r="G59" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" t="s">
-        <v>172</v>
-      </c>
-      <c r="I59" t="s">
-        <v>173</v>
-      </c>
-      <c r="K59" t="s">
-        <v>135</v>
-      </c>
-      <c r="L59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60">
-        <f>路由!$E$28</f>
-      </c>
-      <c r="G60" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" t="s">
-        <v>174</v>
-      </c>
-      <c r="I60" t="s">
-        <v>175</v>
-      </c>
-      <c r="K60" t="s">
-        <v>135</v>
-      </c>
-      <c r="L60" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61">
-        <f>路由!$E$29</f>
-      </c>
-      <c r="G61" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" t="s">
-        <v>176</v>
-      </c>
-      <c r="I61" t="s">
-        <v>177</v>
-      </c>
-      <c r="K61" t="s">
-        <v>135</v>
-      </c>
-      <c r="L61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62">
-        <f>路由!$E$30</f>
-      </c>
-      <c r="G62" t="s">
-        <v>104</v>
-      </c>
-      <c r="H62" t="s">
-        <v>178</v>
-      </c>
-      <c r="I62" t="s">
-        <v>179</v>
-      </c>
-      <c r="K62" t="s">
-        <v>150</v>
-      </c>
-      <c r="L62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63">
-        <f>路由!$E$31</f>
-      </c>
-      <c r="G63" t="s">
-        <v>106</v>
-      </c>
-      <c r="H63" t="s">
-        <v>180</v>
-      </c>
-      <c r="I63" t="s">
-        <v>181</v>
-      </c>
-      <c r="K63" t="s">
-        <v>135</v>
-      </c>
-      <c r="L63" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64">
-        <f>路由!$E$32</f>
-      </c>
-      <c r="G64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H64" t="s">
-        <v>182</v>
-      </c>
-      <c r="I64" t="s">
-        <v>183</v>
-      </c>
-      <c r="K64" t="s">
-        <v>135</v>
-      </c>
-      <c r="L64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65">
-        <f>路由!$E$33</f>
-      </c>
-      <c r="G65" t="s">
-        <v>110</v>
-      </c>
-      <c r="H65" t="s">
-        <v>184</v>
-      </c>
-      <c r="I65" t="s">
-        <v>185</v>
-      </c>
-      <c r="K65" t="s">
-        <v>135</v>
-      </c>
-      <c r="L65" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66">
-        <f>路由!$E$34</f>
-      </c>
-      <c r="G66" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" t="s">
-        <v>186</v>
-      </c>
-      <c r="I66" t="s">
-        <v>187</v>
-      </c>
-      <c r="K66" t="s">
-        <v>135</v>
-      </c>
-      <c r="L66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67">
-        <f>路由!$E$35</f>
-      </c>
-      <c r="G67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" t="s">
-        <v>188</v>
-      </c>
-      <c r="I67" t="s">
-        <v>189</v>
-      </c>
-      <c r="K67" t="s">
-        <v>135</v>
-      </c>
-      <c r="L67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68">
-        <f>路由!$E$36</f>
-      </c>
-      <c r="G68" t="s">
-        <v>116</v>
-      </c>
-      <c r="H68" t="s">
-        <v>190</v>
-      </c>
-      <c r="I68" t="s">
-        <v>191</v>
-      </c>
-      <c r="K68" t="s">
-        <v>135</v>
-      </c>
-      <c r="L68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>132</v>
-      </c>
-      <c r="F69">
-        <f>路由!$E$37</f>
-      </c>
-      <c r="G69" t="s">
-        <v>118</v>
-      </c>
-      <c r="H69" t="s">
-        <v>192</v>
-      </c>
-      <c r="I69" t="s">
-        <v>193</v>
-      </c>
-      <c r="K69" t="s">
-        <v>150</v>
-      </c>
-      <c r="L69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70">
-        <f>路由!$E$38</f>
-      </c>
-      <c r="G70" t="s">
-        <v>120</v>
-      </c>
-      <c r="H70" t="s">
-        <v>194</v>
-      </c>
-      <c r="I70" t="s">
-        <v>195</v>
-      </c>
-      <c r="K70" t="s">
-        <v>135</v>
-      </c>
-      <c r="L70" t="s">
-        <v>150</v>
+      <c r="L28" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1629D60-31D7-4921-8D65-E77BB92940A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="路由" sheetId="2" r:id="rId2"/>
+    <sheet name="路由" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2026,31 +2025,43 @@
     <t>hadm_service-8</t>
   </si>
   <si>
+    <t>hzero-config</t>
+  </si>
+  <si>
+    <t>hadm_service-9</t>
+  </si>
+  <si>
+    <t>hzero-iam</t>
+  </si>
+  <si>
     <t>hadm_service-10</t>
   </si>
   <si>
+    <t>hzero-oauth</t>
+  </si>
+  <si>
     <t>hadm_service-11</t>
   </si>
   <si>
+    <t>hzero-platform</t>
+  </si>
+  <si>
+    <t>hadm_service-12</t>
+  </si>
+  <si>
+    <t>hzero-gateway</t>
+  </si>
+  <si>
+    <t>hadm_service-13</t>
+  </si>
+  <si>
+    <t>hzero-admin</t>
+  </si>
+  <si>
     <t>hadm_service-14</t>
   </si>
   <si>
-    <t>hadm_service-15</t>
-  </si>
-  <si>
-    <t>hadm_service-16</t>
-  </si>
-  <si>
-    <t>hadm_service-19</t>
-  </si>
-  <si>
-    <t>hadm_service-24</t>
-  </si>
-  <si>
-    <t>hadm_service-26</t>
-  </si>
-  <si>
-    <t>hadm_service-30</t>
+    <t>hzero-hap</t>
   </si>
   <si>
     <t>服务路由配置</t>
@@ -2089,33 +2100,21 @@
     <t>*</t>
   </si>
   <si>
-    <t>hagd</t>
-  </si>
-  <si>
-    <t>/hagd/**</t>
+    <t>hcnf</t>
+  </si>
+  <si>
+    <t>/hcnf/**</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>hfle</t>
-  </si>
-  <si>
-    <t>/hfle/**</t>
-  </si>
-  <si>
     <t>hiam</t>
   </si>
   <si>
     <t>/iam/**</t>
   </si>
   <si>
-    <t>hmsg</t>
-  </si>
-  <si>
-    <t>/hmsg/**</t>
-  </si>
-  <si>
     <t>hoth</t>
   </si>
   <si>
@@ -2134,58 +2133,23 @@
     <t>/hpfm/**</t>
   </si>
   <si>
-    <t>hwgr</t>
-  </si>
-  <si>
-    <t>/swagger/**</t>
-  </si>
-  <si>
-    <t>hmnt</t>
-  </si>
-  <si>
-    <t>/hmnt/**</t>
-  </si>
-  <si>
     <t>hadm</t>
   </si>
   <si>
     <t>/hadm/**</t>
   </si>
   <si>
-    <t>choerodon-asgard</t>
-  </si>
-  <si>
-    <t>choerodon-file</t>
-  </si>
-  <si>
-    <t>choerodon-iam</t>
-  </si>
-  <si>
-    <t>choerodon-message</t>
-  </si>
-  <si>
-    <t>choerodon-oauth</t>
-  </si>
-  <si>
-    <t>choerodon-platform</t>
-  </si>
-  <si>
-    <t>choerodon-swagger</t>
-  </si>
-  <si>
-    <t>choerodon-monitor</t>
-  </si>
-  <si>
-    <t>choerodon-gateway</t>
-  </si>
-  <si>
-    <t>choerodon-admin</t>
+    <t>hap</t>
+  </si>
+  <si>
+    <t>/hap/**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="33">
     <font>
       <sz val="12"/>
@@ -2305,94 +2269,79 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2533,7 +2482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2585,21 +2534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2615,11 +2549,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2959,36 +2907,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2997,21 +2945,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3122,11 +3070,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3164,19 +3112,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3200,47 +3148,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3250,13 +3190,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3269,409 +3209,287 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8">
       <c r="E8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>102</v>
+      <c r="F8" t="s">
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s" s="42">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s" s="43">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s" s="44">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="45">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="46">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17">
+        <f>路由!$E$8</f>
+      </c>
+      <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="E11" t="s">
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <f>路由!$E$9</f>
+      </c>
+      <c r="G18" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="E13" t="s">
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19">
+        <f>路由!$E$10</f>
+      </c>
+      <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="E15" t="s">
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20">
+        <f>路由!$E$11</f>
+      </c>
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="37" t="s">
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21">
+        <f>路由!$E$13</f>
+      </c>
+      <c r="G21" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="39" t="s">
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22">
+        <f>路由!$E$14</f>
+      </c>
+      <c r="G22" t="s">
         <v>72</v>
       </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" t="str">
-        <f>路由!$E$8</f>
-        <v>hadm_service-8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" t="str">
-        <f>路由!$E$9</f>
-        <v>hadm_service-10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" t="s">
-        <v>83</v>
-      </c>
-      <c r="L21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" t="str">
-        <f>路由!$E$10</f>
-        <v>hadm_service-11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>104</v>
-      </c>
       <c r="H22" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" t="s">
         <v>87</v>
       </c>
-      <c r="K22" t="s">
-        <v>83</v>
-      </c>
-      <c r="L22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="str">
-        <f>路由!$E$11</f>
-        <v>hadm_service-14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="E24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" t="str">
-        <f>路由!$E$12</f>
-        <v>hadm_service-15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" t="s">
-        <v>83</v>
-      </c>
-      <c r="M24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" t="str">
-        <f>路由!$E$13</f>
-        <v>hadm_service-16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" t="s">
-        <v>83</v>
-      </c>
-      <c r="L25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" t="str">
-        <f>路由!$E$14</f>
-        <v>hadm_service-19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K26" t="s">
-        <v>83</v>
-      </c>
-      <c r="L26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="E27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" t="str">
-        <f>路由!$E$15</f>
-        <v>hadm_service-24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" t="s">
-        <v>98</v>
-      </c>
-      <c r="I27" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" t="str">
-        <f>路由!$E$17</f>
-        <v>hadm_service-30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D732B8-FA89-43D9-A922-9FA261DBB475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="路由" r:id="rId5" sheetId="2"/>
+    <sheet name="路由" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2025,45 +2026,24 @@
     <t>hadm_service-8</t>
   </si>
   <si>
-    <t>hzero-config</t>
-  </si>
-  <si>
     <t>hadm_service-9</t>
   </si>
   <si>
-    <t>hzero-iam</t>
-  </si>
-  <si>
     <t>hadm_service-10</t>
   </si>
   <si>
-    <t>hzero-oauth</t>
-  </si>
-  <si>
     <t>hadm_service-11</t>
   </si>
   <si>
-    <t>hzero-platform</t>
-  </si>
-  <si>
     <t>hadm_service-12</t>
   </si>
   <si>
-    <t>hzero-gateway</t>
-  </si>
-  <si>
     <t>hadm_service-13</t>
   </si>
   <si>
-    <t>hzero-admin</t>
-  </si>
-  <si>
     <t>hadm_service-14</t>
   </si>
   <si>
-    <t>hzero-hap</t>
-  </si>
-  <si>
     <t>服务路由配置</t>
   </si>
   <si>
@@ -2143,13 +2123,33 @@
   </si>
   <si>
     <t>/hap/**</t>
+  </si>
+  <si>
+    <t>choerodon-config</t>
+  </si>
+  <si>
+    <t>choerodon-iam</t>
+  </si>
+  <si>
+    <t>choerodon-oauth</t>
+  </si>
+  <si>
+    <t>choerodon-platform</t>
+  </si>
+  <si>
+    <t>choerodon-gateway</t>
+  </si>
+  <si>
+    <t>choerodon-admin</t>
+  </si>
+  <si>
+    <t>choerodon-hap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="33">
     <font>
       <sz val="12"/>
@@ -2269,79 +2269,94 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2482,7 +2497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2534,6 +2549,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2549,25 +2579,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2907,59 +2923,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2976,7 +2992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -2996,7 +3012,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3010,7 +3026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3053,7 +3069,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3070,13 +3086,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3084,7 +3100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3092,7 +3108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3100,7 +3116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3112,21 +3128,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3148,39 +3164,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:13">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:13">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3190,13 +3214,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3209,105 +3233,105 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -3315,181 +3339,189 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s" s="42">
+      <c r="K16" t="s">
         <v>74</v>
       </c>
-      <c r="E16" t="s" s="43">
+      <c r="L16" t="s">
         <v>75</v>
       </c>
-      <c r="F16" t="s" s="44">
+      <c r="M16" t="s">
         <v>76</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="5:13">
+      <c r="E17" t="s">
         <v>77</v>
       </c>
-      <c r="H16" t="s" s="45">
+      <c r="F17" t="str">
+        <f>路由!$E$8</f>
+        <v>hadm_service-8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s">
         <v>78</v>
       </c>
-      <c r="I16" t="s" s="46">
+      <c r="I17" t="s">
         <v>79</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K17" t="s">
         <v>80</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="str">
+        <f>路由!$E$9</f>
+        <v>hadm_service-9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
         <v>81</v>
       </c>
-      <c r="L16" t="s">
+      <c r="I18" t="s">
         <v>82</v>
       </c>
-      <c r="M16" t="s">
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="str">
+        <f>路由!$E$10</f>
+        <v>hadm_service-10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
+      <c r="I19" t="s">
         <v>84</v>
       </c>
-      <c r="F17">
-        <f>路由!$E$8</f>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="K19" t="s">
         <v>85</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
         <v>86</v>
       </c>
-      <c r="K17" t="s">
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="str">
+        <f>路由!$E$11</f>
+        <v>hadm_service-11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
         <v>87</v>
       </c>
-      <c r="L17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18">
-        <f>路由!$E$9</f>
-      </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I20" t="s">
         <v>88</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="str">
+        <f>路由!$E$13</f>
+        <v>hadm_service-13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19">
-        <f>路由!$E$10</f>
-      </c>
-      <c r="G19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I21" t="s">
         <v>90</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="str">
+        <f>路由!$E$14</f>
+        <v>hadm_service-14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
+      <c r="I22" t="s">
         <v>92</v>
       </c>
-      <c r="L19" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20">
-        <f>路由!$E$11</f>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21">
-        <f>路由!$E$13</f>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" t="s">
-        <v>97</v>
-      </c>
-      <c r="K21" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22">
-        <f>路由!$E$14</f>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" t="s">
-        <v>99</v>
-      </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D732B8-FA89-43D9-A922-9FA261DBB475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1629D60-31D7-4921-8D65-E77BB92940A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2026,24 +2026,33 @@
     <t>hadm_service-8</t>
   </si>
   <si>
-    <t>hadm_service-9</t>
-  </si>
-  <si>
     <t>hadm_service-10</t>
   </si>
   <si>
     <t>hadm_service-11</t>
   </si>
   <si>
-    <t>hadm_service-12</t>
-  </si>
-  <si>
-    <t>hadm_service-13</t>
-  </si>
-  <si>
     <t>hadm_service-14</t>
   </si>
   <si>
+    <t>hadm_service-15</t>
+  </si>
+  <si>
+    <t>hadm_service-16</t>
+  </si>
+  <si>
+    <t>hadm_service-19</t>
+  </si>
+  <si>
+    <t>hadm_service-24</t>
+  </si>
+  <si>
+    <t>hadm_service-26</t>
+  </si>
+  <si>
+    <t>hadm_service-30</t>
+  </si>
+  <si>
     <t>服务路由配置</t>
   </si>
   <si>
@@ -2080,21 +2089,33 @@
     <t>*</t>
   </si>
   <si>
-    <t>hcnf</t>
-  </si>
-  <si>
-    <t>/hcnf/**</t>
+    <t>hagd</t>
+  </si>
+  <si>
+    <t>/hagd/**</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>hfle</t>
+  </si>
+  <si>
+    <t>/hfle/**</t>
+  </si>
+  <si>
     <t>hiam</t>
   </si>
   <si>
     <t>/iam/**</t>
   </si>
   <si>
+    <t>hmsg</t>
+  </si>
+  <si>
+    <t>/hmsg/**</t>
+  </si>
+  <si>
     <t>hoth</t>
   </si>
   <si>
@@ -2113,37 +2134,52 @@
     <t>/hpfm/**</t>
   </si>
   <si>
+    <t>hwgr</t>
+  </si>
+  <si>
+    <t>/swagger/**</t>
+  </si>
+  <si>
+    <t>hmnt</t>
+  </si>
+  <si>
+    <t>/hmnt/**</t>
+  </si>
+  <si>
     <t>hadm</t>
   </si>
   <si>
     <t>/hadm/**</t>
   </si>
   <si>
-    <t>hap</t>
-  </si>
-  <si>
-    <t>/hap/**</t>
-  </si>
-  <si>
-    <t>choerodon-config</t>
+    <t>choerodon-asgard</t>
+  </si>
+  <si>
+    <t>choerodon-file</t>
   </si>
   <si>
     <t>choerodon-iam</t>
   </si>
   <si>
+    <t>choerodon-message</t>
+  </si>
+  <si>
     <t>choerodon-oauth</t>
   </si>
   <si>
     <t>choerodon-platform</t>
   </si>
   <si>
+    <t>choerodon-swagger</t>
+  </si>
+  <si>
+    <t>choerodon-monitor</t>
+  </si>
+  <si>
     <t>choerodon-gateway</t>
   </si>
   <si>
     <t>choerodon-admin</t>
-  </si>
-  <si>
-    <t>choerodon-hap</t>
   </si>
 </sst>
 </file>
@@ -2926,23 +2962,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2957,7 +2993,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -2971,7 +3007,7 @@
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="18">
       <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
@@ -2992,7 +3028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3048,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3026,7 +3062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3037,7 +3073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3069,7 +3105,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3092,7 +3128,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3100,7 +3136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3116,7 +3152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3142,7 +3178,7 @@
       </c>
       <c r="E26" s="42"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3165,21 +3201,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -3193,7 +3229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:9">
       <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
@@ -3204,7 +3240,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3233,295 +3269,409 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:9">
       <c r="E8" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="E9" t="s">
         <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="E10" t="s">
         <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="E11" t="s">
         <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="E12" t="s">
         <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="E13" t="s">
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="E14" t="s">
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="39" t="s">
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="G16" t="s">
+      <c r="D19" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="E19" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="F19" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J16" t="s">
+      <c r="G19" t="s">
         <v>73</v>
       </c>
-      <c r="K16" t="s">
+      <c r="H19" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="L16" t="s">
+      <c r="I19" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="M16" t="s">
+      <c r="J19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="5:13">
-      <c r="E17" t="s">
+      <c r="K19" t="s">
         <v>77</v>
       </c>
-      <c r="F17" t="str">
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="str">
         <f>路由!$E$8</f>
         <v>hadm_service-8</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="str">
+        <f>路由!$E$9</f>
+        <v>hadm_service-10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="str">
+        <f>路由!$E$10</f>
+        <v>hadm_service-11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="str">
+        <f>路由!$E$11</f>
+        <v>hadm_service-14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="str">
+        <f>路由!$E$12</f>
+        <v>hadm_service-15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" t="s">
         <v>93</v>
       </c>
-      <c r="H17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" t="s">
+    </row>
+    <row r="25" spans="1:13">
+      <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="L17" t="s">
+      <c r="F25" t="str">
+        <f>路由!$E$13</f>
+        <v>hadm_service-16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="E26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="5:13">
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="str">
-        <f>路由!$E$9</f>
-        <v>hadm_service-9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="F26" t="str">
+        <f>路由!$E$14</f>
+        <v>hadm_service-19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="E27" t="s">
         <v>80</v>
       </c>
-      <c r="L18" t="s">
+      <c r="F27" t="str">
+        <f>路由!$E$15</f>
+        <v>hadm_service-24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="E28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="5:13">
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" t="str">
-        <f>路由!$E$10</f>
-        <v>hadm_service-10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="F28" t="str">
+        <f>路由!$E$17</f>
+        <v>hadm_service-30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" t="s">
         <v>83</v>
-      </c>
-      <c r="I19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>80</v>
-      </c>
-      <c r="M19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13">
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="str">
-        <f>路由!$E$11</f>
-        <v>hadm_service-11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13">
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" t="str">
-        <f>路由!$E$13</f>
-        <v>hadm_service-13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13">
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" t="str">
-        <f>路由!$E$14</f>
-        <v>hadm_service-14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\choerodon\choerodon-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-admin\src\main\resources\script\db\init-data\hzero_admin\hzero_admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1629D60-31D7-4921-8D65-E77BB92940A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,12 +21,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
   <si>
     <r>
       <rPr>
@@ -2180,13 +2179,34 @@
   </si>
   <si>
     <t>choerodon-admin</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>2124</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2198,6 +2218,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2216,6 +2237,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2279,21 +2301,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2585,6 +2592,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2598,8 +2607,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2615,11 +2623,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2959,59 +2966,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="45" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3048,7 +3055,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3062,7 +3069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3073,7 +3080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3112,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3122,13 +3129,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3136,7 +3143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3144,7 +3151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3152,7 +3159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3164,21 +3171,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3193,29 +3200,29 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.9140625" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
@@ -3240,7 +3247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3268,12 +3275,18 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="E8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="42" t="s">
         <v>102</v>
       </c>
       <c r="G8" t="s">
@@ -3282,8 +3295,14 @@
       <c r="H8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="E9" t="s">
         <v>60</v>
       </c>
@@ -3296,8 +3315,14 @@
       <c r="H9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -3310,8 +3335,14 @@
       <c r="H10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="E11" t="s">
         <v>62</v>
       </c>
@@ -3324,8 +3355,14 @@
       <c r="H11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="E12" t="s">
         <v>63</v>
       </c>
@@ -3338,8 +3375,14 @@
       <c r="H12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="E13" t="s">
         <v>64</v>
       </c>
@@ -3352,8 +3395,14 @@
       <c r="H13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="E14" t="s">
         <v>65</v>
       </c>
@@ -3366,8 +3415,14 @@
       <c r="H14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="E15" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3435,14 @@
       <c r="H15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="E16" t="s">
         <v>67</v>
       </c>
@@ -3394,8 +3455,14 @@
       <c r="H16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>68</v>
       </c>
@@ -3408,8 +3475,14 @@
       <c r="H17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3449,8 +3522,14 @@
       <c r="M19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>80</v>
       </c>
@@ -3473,8 +3552,14 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>80</v>
       </c>
@@ -3497,8 +3582,14 @@
       <c r="L21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>80</v>
       </c>
@@ -3521,8 +3612,14 @@
       <c r="L22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>80</v>
       </c>
@@ -3545,8 +3642,14 @@
       <c r="L23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>80</v>
       </c>
@@ -3572,8 +3675,14 @@
       <c r="M24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>114</v>
+      </c>
+      <c r="O24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>80</v>
       </c>
@@ -3596,8 +3705,14 @@
       <c r="L25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>80</v>
       </c>
@@ -3620,8 +3735,14 @@
       <c r="L26" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>114</v>
+      </c>
+      <c r="O26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>80</v>
       </c>
@@ -3644,8 +3765,14 @@
       <c r="L27" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>114</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>80</v>
       </c>
@@ -3668,9 +3795,15 @@
       <c r="L28" t="s">
         <v>83</v>
       </c>
+      <c r="N28" t="s">
+        <v>114</v>
+      </c>
+      <c r="O28">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_admin/hzero_admin/hzero-service-route.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
   <si>
     <r>
       <rPr>
@@ -2191,15 +2191,6 @@
   </si>
   <si>
     <t>-1</t>
-  </si>
-  <si>
-    <t>2124</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>106</t>
   </si>
 </sst>
 </file>
@@ -3211,7 +3202,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3585,8 +3576,8 @@
       <c r="N21" t="s">
         <v>114</v>
       </c>
-      <c r="O21" t="s">
-        <v>116</v>
+      <c r="O21">
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3615,8 +3606,8 @@
       <c r="N22" t="s">
         <v>114</v>
       </c>
-      <c r="O22" t="s">
-        <v>116</v>
+      <c r="O22">
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -3645,8 +3636,8 @@
       <c r="N23" t="s">
         <v>114</v>
       </c>
-      <c r="O23" t="s">
-        <v>117</v>
+      <c r="O23">
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -3708,8 +3699,8 @@
       <c r="N25" t="s">
         <v>114</v>
       </c>
-      <c r="O25" t="s">
-        <v>118</v>
+      <c r="O25">
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:15">
